--- a/sessions/data/Part_I/SIAF/districts/ MUNICIPALIDAD DISTRITAL DE CHETO/ MUNICIPALIDAD DISTRITAL DE CHETO.xlsx
+++ b/sessions/data/Part_I/SIAF/districts/ MUNICIPALIDAD DISTRITAL DE CHETO/ MUNICIPALIDAD DISTRITAL DE CHETO.xlsx
@@ -576,7 +576,7 @@
         <v>1619445</v>
       </c>
       <c r="I4" t="n">
-        <v>1569445</v>
+        <v>1594445</v>
       </c>
       <c r="J4" t="n">
         <v>99.40000000000001</v>
